--- a/1.xlsx
+++ b/1.xlsx
@@ -16,7 +16,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t xml:space="preserve">More Demo in: https://Zcloud.io.vn</t>
+  </si>
   <si>
     <t>ádfsadf</t>
   </si>
@@ -25,15 +28,6 @@
   </si>
   <si>
     <t>sdfsdf</t>
-  </si>
-  <si>
-    <t>sdfdf</t>
-  </si>
-  <si>
-    <t>ádfsdf</t>
-  </si>
-  <si>
-    <t>sfasdf</t>
   </si>
   <si>
     <t>https://i1-vnexpress.vnecdn.net/2024/11/02/nguyencaotri79691700279712-173-5816-2415-1730559063.png?w=680&amp;h=408&amp;q=100&amp;dpr=1&amp;fit=crop&amp;s=lxFYlJyTDRAh_-cySm-IEQ</t>
@@ -52,10 +46,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10.000000"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20.000000"/>
+      <color theme="5" tint="0"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
@@ -103,14 +104,15 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="3" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="4" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -129,10 +131,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>258521</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>45709</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>706195</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>36183</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4229099" cy="1895473"/>
     <xdr:pic>
@@ -146,7 +148,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="258521" y="2446009"/>
+          <a:off x="3220795" y="1236333"/>
           <a:ext cx="4229100" cy="1895474"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -664,97 +666,79 @@
   <sheetFormatPr defaultColWidth="12.630000000000001" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1"/>
-    <row r="2" ht="15.75" customHeight="1"/>
+    <row r="2" ht="37.5" customHeight="1">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
     <row r="3" ht="15.75" customHeight="1"/>
     <row r="4" ht="15.75" customHeight="1">
       <c r="L4" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="H5" t="s">
-        <v>0</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="H5">
+        <v>111</v>
+      </c>
+      <c r="J5"/>
+    </row>
+    <row r="6" ht="15.75" customHeight="1">
+      <c r="H6">
+        <v>333</v>
+      </c>
+      <c r="M6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="K6" t="s">
-        <v>4</v>
-      </c>
-      <c r="M6" t="s">
-        <v>2</v>
-      </c>
       <c r="N6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
     </row>
     <row r="8">
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
     </row>
     <row r="9">
-      <c r="B9">
-        <v>3434</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
       <c r="L9">
         <v>111</v>
       </c>
     </row>
     <row r="10">
-      <c r="C10" s="1">
-        <v>4</v>
-      </c>
-      <c r="D10" s="1">
-        <v>444</v>
-      </c>
-      <c r="E10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10">
-        <v>111</v>
-      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
       <c r="L10">
         <v>222</v>
       </c>
       <c r="N10" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
-      <c r="C11" s="1">
-        <v>5</v>
-      </c>
-      <c r="D11" s="1">
-        <v>555</v>
-      </c>
-      <c r="F11">
-        <v>999</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>6</v>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="I11" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="L11">
         <v>333</v>
       </c>
     </row>
     <row r="12">
-      <c r="C12" s="1">
+      <c r="C12" s="2">
         <v>6</v>
       </c>
       <c r="L12">
@@ -762,33 +746,36 @@
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
+      <c r="C13">
+        <v>666</v>
+      </c>
       <c r="F13" t="s">
-        <v>7</v>
-      </c>
-      <c r="I13" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="I13" s="3"/>
       <c r="L13">
         <v>555</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="H14" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L14">
         <v>666</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="4">
+      <c r="B15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="5">
         <f t="shared" ref="C15:D15" si="0">SUM(C7:C14)</f>
-        <v>15</v>
-      </c>
-      <c r="D15" s="4">
+        <v>672</v>
+      </c>
+      <c r="D15" s="5">
         <f t="shared" si="0"/>
-        <v>999</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -799,34 +786,6 @@
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
-  <drawing r:id="rId4"/>
-  <legacyDrawing r:id="rId5"/>
-  <oleObjects>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="asc.{DB38923B-A8C0-4DE9-8AEE-A61BB5C901A5}" dvAspect="DVASPECT_CONTENT" shapeId="2048" r:id="rId3">
-          <objectPr defaultSize="0" r:id="rId2">
-            <anchor>
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>654522</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>111508</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>238123</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>882</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="asc.{DB38923B-A8C0-4DE9-8AEE-A61BB5C901A5}" dvAspect="DVASPECT_CONTENT" shapeId="2048" r:id="rId3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-  </oleObjects>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>